--- a/ConfigurationFiles/1-FA_Whitelist.xlsx
+++ b/ConfigurationFiles/1-FA_Whitelist.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8480"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20160" windowHeight="8477"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="79">
   <si>
     <t>FattyAcid</t>
   </si>
@@ -231,13 +231,31 @@
     <t>Cer</t>
   </si>
   <si>
-    <t>m</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>t</t>
+    <t>FA23:1</t>
+  </si>
+  <si>
+    <t>FA23:2</t>
+  </si>
+  <si>
+    <t>FA25:1</t>
+  </si>
+  <si>
+    <t>FA25:2</t>
+  </si>
+  <si>
+    <t>SPB18:1;2</t>
+  </si>
+  <si>
+    <t>SPB18:0;2</t>
+  </si>
+  <si>
+    <t>SPB16:1;1</t>
+  </si>
+  <si>
+    <t>SPB20:0;3</t>
+  </si>
+  <si>
+    <t>PL</t>
   </si>
 </sst>
 </file>
@@ -555,18 +573,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K62"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.7265625" customWidth="1"/>
+    <col min="1" max="1" width="11.69140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -580,28 +598,22 @@
         <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F1" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G1" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="H1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="I1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1" t="s">
-        <v>57</v>
-      </c>
-      <c r="K1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -614,20 +626,20 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>18</v>
+      </c>
       <c r="H2" t="s">
         <v>18</v>
       </c>
-      <c r="I2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -640,20 +652,20 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
+      <c r="E3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" t="s">
         <v>18</v>
       </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
         <v>64</v>
       </c>
@@ -666,20 +678,20 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
         <v>18</v>
       </c>
-      <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
         <v>65</v>
       </c>
@@ -692,20 +704,20 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
+      </c>
       <c r="H5" t="s">
         <v>18</v>
       </c>
-      <c r="I5" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
         <v>40</v>
       </c>
@@ -718,20 +730,20 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
         <v>18</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
         <v>66</v>
       </c>
@@ -744,20 +756,20 @@
       <c r="D7" t="s">
         <v>18</v>
       </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s">
+        <v>18</v>
+      </c>
       <c r="H7" t="s">
         <v>18</v>
       </c>
-      <c r="I7" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -770,20 +782,20 @@
       <c r="D8" t="s">
         <v>18</v>
       </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="I8" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
         <v>61</v>
       </c>
@@ -796,20 +808,20 @@
       <c r="D9" t="s">
         <v>18</v>
       </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s">
+        <v>18</v>
+      </c>
       <c r="H9" t="s">
         <v>18</v>
       </c>
-      <c r="I9" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -822,20 +834,20 @@
       <c r="D10" t="s">
         <v>18</v>
       </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G10" t="s">
+        <v>18</v>
+      </c>
       <c r="H10" t="s">
         <v>18</v>
       </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>18</v>
-      </c>
-      <c r="K10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
         <v>44</v>
       </c>
@@ -848,20 +860,20 @@
       <c r="D11" t="s">
         <v>18</v>
       </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
       <c r="H11" t="s">
         <v>18</v>
       </c>
-      <c r="I11" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" t="s">
-        <v>18</v>
-      </c>
-      <c r="K11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -874,20 +886,20 @@
       <c r="D12" t="s">
         <v>18</v>
       </c>
+      <c r="E12" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" t="s">
+        <v>18</v>
+      </c>
       <c r="H12" t="s">
         <v>18</v>
       </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -900,20 +912,20 @@
       <c r="D13" t="s">
         <v>18</v>
       </c>
+      <c r="E13" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
       <c r="H13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
         <v>56</v>
       </c>
@@ -926,20 +938,20 @@
       <c r="D14" t="s">
         <v>18</v>
       </c>
+      <c r="E14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
       <c r="H14" t="s">
         <v>18</v>
       </c>
-      <c r="I14" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" t="s">
-        <v>18</v>
-      </c>
-      <c r="K14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
         <v>21</v>
       </c>
@@ -952,20 +964,23 @@
       <c r="D15" t="s">
         <v>18</v>
       </c>
+      <c r="E15" t="s">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s">
+        <v>18</v>
+      </c>
       <c r="H15" t="s">
         <v>18</v>
       </c>
       <c r="I15" t="s">
         <v>18</v>
       </c>
-      <c r="J15" t="s">
-        <v>18</v>
-      </c>
-      <c r="K15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -978,20 +993,23 @@
       <c r="D16" t="s">
         <v>18</v>
       </c>
+      <c r="E16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" t="s">
+        <v>18</v>
+      </c>
       <c r="H16" t="s">
         <v>18</v>
       </c>
       <c r="I16" t="s">
         <v>18</v>
       </c>
-      <c r="J16" t="s">
-        <v>18</v>
-      </c>
-      <c r="K16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
         <v>49</v>
       </c>
@@ -1004,20 +1022,23 @@
       <c r="D17" t="s">
         <v>18</v>
       </c>
+      <c r="E17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s">
+        <v>18</v>
+      </c>
       <c r="H17" t="s">
         <v>18</v>
       </c>
       <c r="I17" t="s">
         <v>18</v>
       </c>
-      <c r="J17" t="s">
-        <v>18</v>
-      </c>
-      <c r="K17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
         <v>42</v>
       </c>
@@ -1030,20 +1051,23 @@
       <c r="D18" t="s">
         <v>18</v>
       </c>
+      <c r="E18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" t="s">
+        <v>18</v>
+      </c>
       <c r="H18" t="s">
         <v>18</v>
       </c>
       <c r="I18" t="s">
         <v>18</v>
       </c>
-      <c r="J18" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
         <v>53</v>
       </c>
@@ -1056,20 +1080,23 @@
       <c r="D19" t="s">
         <v>18</v>
       </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s">
+        <v>18</v>
+      </c>
       <c r="H19" t="s">
         <v>18</v>
       </c>
       <c r="I19" t="s">
         <v>18</v>
       </c>
-      <c r="J19" t="s">
-        <v>18</v>
-      </c>
-      <c r="K19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
         <v>54</v>
       </c>
@@ -1082,20 +1109,23 @@
       <c r="D20" t="s">
         <v>18</v>
       </c>
+      <c r="E20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G20" t="s">
+        <v>18</v>
+      </c>
       <c r="H20" t="s">
         <v>18</v>
       </c>
       <c r="I20" t="s">
         <v>18</v>
       </c>
-      <c r="J20" t="s">
-        <v>18</v>
-      </c>
-      <c r="K20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
         <v>1</v>
       </c>
@@ -1108,20 +1138,23 @@
       <c r="D21" t="s">
         <v>18</v>
       </c>
+      <c r="E21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s">
+        <v>18</v>
+      </c>
       <c r="H21" t="s">
         <v>18</v>
       </c>
       <c r="I21" t="s">
         <v>18</v>
       </c>
-      <c r="J21" t="s">
-        <v>18</v>
-      </c>
-      <c r="K21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
         <v>28</v>
       </c>
@@ -1134,20 +1167,23 @@
       <c r="D22" t="s">
         <v>18</v>
       </c>
+      <c r="E22" t="s">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s">
+        <v>18</v>
+      </c>
+      <c r="G22" t="s">
+        <v>18</v>
+      </c>
       <c r="H22" t="s">
         <v>18</v>
       </c>
       <c r="I22" t="s">
         <v>18</v>
       </c>
-      <c r="J22" t="s">
-        <v>18</v>
-      </c>
-      <c r="K22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
         <v>48</v>
       </c>
@@ -1160,20 +1196,23 @@
       <c r="D23" t="s">
         <v>18</v>
       </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s">
+        <v>18</v>
+      </c>
       <c r="H23" t="s">
         <v>18</v>
       </c>
       <c r="I23" t="s">
         <v>18</v>
       </c>
-      <c r="J23" t="s">
-        <v>18</v>
-      </c>
-      <c r="K23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
         <v>43</v>
       </c>
@@ -1186,20 +1225,23 @@
       <c r="D24" t="s">
         <v>18</v>
       </c>
+      <c r="E24" t="s">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s">
+        <v>18</v>
+      </c>
+      <c r="G24" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" t="s">
         <v>18</v>
       </c>
       <c r="I24" t="s">
         <v>18</v>
       </c>
-      <c r="J24" t="s">
-        <v>18</v>
-      </c>
-      <c r="K24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
         <v>45</v>
       </c>
@@ -1212,20 +1254,23 @@
       <c r="D25" t="s">
         <v>18</v>
       </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s">
+        <v>18</v>
+      </c>
       <c r="H25" t="s">
         <v>18</v>
       </c>
       <c r="I25" t="s">
         <v>18</v>
       </c>
-      <c r="J25" t="s">
-        <v>18</v>
-      </c>
-      <c r="K25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
         <v>52</v>
       </c>
@@ -1238,20 +1283,23 @@
       <c r="D26" t="s">
         <v>18</v>
       </c>
+      <c r="E26" t="s">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>18</v>
+      </c>
       <c r="H26" t="s">
         <v>18</v>
       </c>
       <c r="I26" t="s">
         <v>18</v>
       </c>
-      <c r="J26" t="s">
-        <v>18</v>
-      </c>
-      <c r="K26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -1264,23 +1312,23 @@
       <c r="D27" t="s">
         <v>18</v>
       </c>
+      <c r="E27" t="s">
+        <v>18</v>
+      </c>
       <c r="F27" t="s">
         <v>18</v>
       </c>
+      <c r="G27" t="s">
+        <v>18</v>
+      </c>
       <c r="H27" t="s">
         <v>18</v>
       </c>
       <c r="I27" t="s">
         <v>18</v>
       </c>
-      <c r="J27" t="s">
-        <v>18</v>
-      </c>
-      <c r="K27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -1293,23 +1341,23 @@
       <c r="D28" t="s">
         <v>18</v>
       </c>
+      <c r="E28" t="s">
+        <v>18</v>
+      </c>
       <c r="F28" t="s">
         <v>18</v>
       </c>
+      <c r="G28" t="s">
+        <v>18</v>
+      </c>
       <c r="H28" t="s">
         <v>18</v>
       </c>
       <c r="I28" t="s">
         <v>18</v>
       </c>
-      <c r="J28" t="s">
-        <v>18</v>
-      </c>
-      <c r="K28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -1322,23 +1370,23 @@
       <c r="D29" t="s">
         <v>18</v>
       </c>
+      <c r="E29" t="s">
+        <v>18</v>
+      </c>
       <c r="F29" t="s">
         <v>18</v>
       </c>
+      <c r="G29" t="s">
+        <v>18</v>
+      </c>
       <c r="H29" t="s">
         <v>18</v>
       </c>
       <c r="I29" t="s">
         <v>18</v>
       </c>
-      <c r="J29" t="s">
-        <v>18</v>
-      </c>
-      <c r="K29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1351,20 +1399,23 @@
       <c r="D30" t="s">
         <v>18</v>
       </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s">
+        <v>18</v>
+      </c>
+      <c r="G30" t="s">
+        <v>18</v>
+      </c>
       <c r="H30" t="s">
         <v>18</v>
       </c>
       <c r="I30" t="s">
         <v>18</v>
       </c>
-      <c r="J30" t="s">
-        <v>18</v>
-      </c>
-      <c r="K30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1377,20 +1428,23 @@
       <c r="D31" t="s">
         <v>18</v>
       </c>
+      <c r="E31" t="s">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s">
+        <v>18</v>
+      </c>
       <c r="H31" t="s">
         <v>18</v>
       </c>
       <c r="I31" t="s">
         <v>18</v>
       </c>
-      <c r="J31" t="s">
-        <v>18</v>
-      </c>
-      <c r="K31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
         <v>46</v>
       </c>
@@ -1403,20 +1457,23 @@
       <c r="D32" t="s">
         <v>18</v>
       </c>
+      <c r="E32" t="s">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s">
+        <v>18</v>
+      </c>
+      <c r="G32" t="s">
+        <v>18</v>
+      </c>
       <c r="H32" t="s">
         <v>18</v>
       </c>
       <c r="I32" t="s">
         <v>18</v>
       </c>
-      <c r="J32" t="s">
-        <v>18</v>
-      </c>
-      <c r="K32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
         <v>47</v>
       </c>
@@ -1429,20 +1486,23 @@
       <c r="D33" t="s">
         <v>18</v>
       </c>
+      <c r="E33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s">
+        <v>18</v>
+      </c>
       <c r="H33" t="s">
         <v>18</v>
       </c>
       <c r="I33" t="s">
         <v>18</v>
       </c>
-      <c r="J33" t="s">
-        <v>18</v>
-      </c>
-      <c r="K33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -1455,20 +1515,23 @@
       <c r="D34" t="s">
         <v>18</v>
       </c>
+      <c r="E34" t="s">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s">
+        <v>18</v>
+      </c>
+      <c r="G34" t="s">
+        <v>18</v>
+      </c>
       <c r="H34" t="s">
         <v>18</v>
       </c>
       <c r="I34" t="s">
         <v>18</v>
       </c>
-      <c r="J34" t="s">
-        <v>18</v>
-      </c>
-      <c r="K34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
         <v>23</v>
       </c>
@@ -1481,20 +1544,23 @@
       <c r="D35" t="s">
         <v>18</v>
       </c>
+      <c r="E35" t="s">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s">
+        <v>18</v>
+      </c>
       <c r="H35" t="s">
         <v>18</v>
       </c>
       <c r="I35" t="s">
         <v>18</v>
       </c>
-      <c r="J35" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
         <v>30</v>
       </c>
@@ -1507,20 +1573,23 @@
       <c r="D36" t="s">
         <v>18</v>
       </c>
+      <c r="E36" t="s">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s">
+        <v>18</v>
+      </c>
+      <c r="G36" t="s">
+        <v>18</v>
+      </c>
       <c r="H36" t="s">
         <v>18</v>
       </c>
       <c r="I36" t="s">
         <v>18</v>
       </c>
-      <c r="J36" t="s">
-        <v>18</v>
-      </c>
-      <c r="K36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1533,20 +1602,23 @@
       <c r="D37" t="s">
         <v>18</v>
       </c>
+      <c r="E37" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s">
+        <v>18</v>
+      </c>
       <c r="H37" t="s">
         <v>18</v>
       </c>
       <c r="I37" t="s">
         <v>18</v>
       </c>
-      <c r="J37" t="s">
-        <v>18</v>
-      </c>
-      <c r="K37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>6</v>
       </c>
@@ -1559,20 +1631,23 @@
       <c r="D38" t="s">
         <v>18</v>
       </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s">
+        <v>18</v>
+      </c>
+      <c r="G38" t="s">
+        <v>18</v>
+      </c>
       <c r="H38" t="s">
         <v>18</v>
       </c>
       <c r="I38" t="s">
         <v>18</v>
       </c>
-      <c r="J38" t="s">
-        <v>18</v>
-      </c>
-      <c r="K38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
         <v>7</v>
       </c>
@@ -1585,20 +1660,23 @@
       <c r="D39" t="s">
         <v>18</v>
       </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s">
+        <v>18</v>
+      </c>
       <c r="H39" t="s">
         <v>18</v>
       </c>
       <c r="I39" t="s">
         <v>18</v>
       </c>
-      <c r="J39" t="s">
-        <v>18</v>
-      </c>
-      <c r="K39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
         <v>8</v>
       </c>
@@ -1611,20 +1689,23 @@
       <c r="D40" t="s">
         <v>18</v>
       </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" t="s">
+        <v>18</v>
+      </c>
       <c r="H40" t="s">
         <v>18</v>
       </c>
       <c r="I40" t="s">
         <v>18</v>
       </c>
-      <c r="J40" t="s">
-        <v>18</v>
-      </c>
-      <c r="K40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
         <v>24</v>
       </c>
@@ -1637,20 +1718,23 @@
       <c r="D41" t="s">
         <v>18</v>
       </c>
+      <c r="E41" t="s">
+        <v>18</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s">
+        <v>18</v>
+      </c>
       <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
         <v>18</v>
       </c>
-      <c r="J41" t="s">
-        <v>18</v>
-      </c>
-      <c r="K41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -1663,20 +1747,23 @@
       <c r="D42" t="s">
         <v>18</v>
       </c>
+      <c r="E42" t="s">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s">
+        <v>18</v>
+      </c>
+      <c r="G42" t="s">
+        <v>18</v>
+      </c>
       <c r="H42" t="s">
         <v>18</v>
       </c>
       <c r="I42" t="s">
         <v>18</v>
       </c>
-      <c r="J42" t="s">
-        <v>18</v>
-      </c>
-      <c r="K42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
         <v>33</v>
       </c>
@@ -1689,20 +1776,23 @@
       <c r="D43" t="s">
         <v>18</v>
       </c>
+      <c r="E43" t="s">
+        <v>18</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
         <v>18</v>
       </c>
       <c r="I43" t="s">
         <v>18</v>
       </c>
-      <c r="J43" t="s">
-        <v>18</v>
-      </c>
-      <c r="K43" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
         <v>34</v>
       </c>
@@ -1715,20 +1805,23 @@
       <c r="D44" t="s">
         <v>18</v>
       </c>
+      <c r="E44" t="s">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s">
+        <v>18</v>
+      </c>
       <c r="H44" t="s">
         <v>18</v>
       </c>
       <c r="I44" t="s">
         <v>18</v>
       </c>
-      <c r="J44" t="s">
-        <v>18</v>
-      </c>
-      <c r="K44" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
         <v>9</v>
       </c>
@@ -1741,20 +1834,23 @@
       <c r="D45" t="s">
         <v>18</v>
       </c>
+      <c r="E45" t="s">
+        <v>18</v>
+      </c>
+      <c r="F45" t="s">
+        <v>18</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
         <v>18</v>
       </c>
       <c r="I45" t="s">
         <v>18</v>
       </c>
-      <c r="J45" t="s">
-        <v>18</v>
-      </c>
-      <c r="K45" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -1767,20 +1863,23 @@
       <c r="D46" t="s">
         <v>18</v>
       </c>
+      <c r="E46" t="s">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" t="s">
         <v>18</v>
       </c>
       <c r="I46" t="s">
         <v>18</v>
       </c>
-      <c r="J46" t="s">
-        <v>18</v>
-      </c>
-      <c r="K46" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
         <v>11</v>
       </c>
@@ -1793,17 +1892,20 @@
       <c r="D47" t="s">
         <v>18</v>
       </c>
-      <c r="H47" t="s">
+      <c r="E47" t="s">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s">
         <v>18</v>
       </c>
       <c r="I47" t="s">
         <v>18</v>
       </c>
-      <c r="K47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
         <v>50</v>
       </c>
@@ -1816,281 +1918,399 @@
       <c r="D48" t="s">
         <v>18</v>
       </c>
-      <c r="H48" t="s">
+      <c r="E48" t="s">
+        <v>18</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
         <v>18</v>
       </c>
-      <c r="K48" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>70</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="I49" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="I50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
         <v>25</v>
       </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49" t="s">
-        <v>18</v>
-      </c>
-      <c r="D49" t="s">
-        <v>18</v>
-      </c>
-      <c r="H49" t="s">
-        <v>18</v>
-      </c>
-      <c r="I49" t="s">
-        <v>18</v>
-      </c>
-      <c r="K49" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s">
+        <v>18</v>
+      </c>
+      <c r="I51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>35</v>
       </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50" t="s">
-        <v>18</v>
-      </c>
-      <c r="D50" t="s">
-        <v>18</v>
-      </c>
-      <c r="H50" t="s">
-        <v>18</v>
-      </c>
-      <c r="I50" t="s">
-        <v>18</v>
-      </c>
-      <c r="K50" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="I52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>36</v>
       </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="H51" t="s">
-        <v>18</v>
-      </c>
-      <c r="I51" t="s">
-        <v>18</v>
-      </c>
-      <c r="K51" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="I53" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>37</v>
       </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" t="s">
-        <v>18</v>
-      </c>
-      <c r="D52" t="s">
-        <v>18</v>
-      </c>
-      <c r="H52" t="s">
-        <v>18</v>
-      </c>
-      <c r="I52" t="s">
-        <v>18</v>
-      </c>
-      <c r="K52" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="I54" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>67</v>
       </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" t="s">
-        <v>18</v>
-      </c>
-      <c r="D53" t="s">
-        <v>18</v>
-      </c>
-      <c r="H53" t="s">
-        <v>18</v>
-      </c>
-      <c r="I53" t="s">
-        <v>18</v>
-      </c>
-      <c r="K53" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>18</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>18</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="I55" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="I56" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>73</v>
+      </c>
+      <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="I57" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
         <v>26</v>
       </c>
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
-      <c r="C54" t="s">
-        <v>18</v>
-      </c>
-      <c r="D54" t="s">
-        <v>18</v>
-      </c>
-      <c r="H54" t="s">
-        <v>18</v>
-      </c>
-      <c r="I54" t="s">
-        <v>18</v>
-      </c>
-      <c r="K54" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>18</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
+      <c r="I58" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
         <v>38</v>
       </c>
-      <c r="B55" t="s">
-        <v>18</v>
-      </c>
-      <c r="C55" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" t="s">
-        <v>18</v>
-      </c>
-      <c r="H55" t="s">
-        <v>18</v>
-      </c>
-      <c r="I55" t="s">
-        <v>18</v>
-      </c>
-      <c r="K55" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>18</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>18</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>39</v>
       </c>
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="C56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>18</v>
-      </c>
-      <c r="H56" t="s">
-        <v>18</v>
-      </c>
-      <c r="I56" t="s">
-        <v>18</v>
-      </c>
-      <c r="K56" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>18</v>
+      </c>
+      <c r="F60" t="s">
+        <v>18</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>12</v>
       </c>
-      <c r="B57" t="s">
-        <v>18</v>
-      </c>
-      <c r="H57" t="s">
-        <v>18</v>
-      </c>
-      <c r="I57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>18</v>
+      </c>
+      <c r="F61" t="s">
+        <v>18</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
         <v>13</v>
       </c>
-      <c r="B58" t="s">
-        <v>18</v>
-      </c>
-      <c r="H58" t="s">
-        <v>18</v>
-      </c>
-      <c r="I58" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>18</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>14</v>
       </c>
-      <c r="B59" t="s">
-        <v>18</v>
-      </c>
-      <c r="H59" t="s">
-        <v>18</v>
-      </c>
-      <c r="I59" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>18</v>
+      </c>
+      <c r="F63" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
         <v>15</v>
       </c>
-      <c r="B60" t="s">
-        <v>18</v>
-      </c>
-      <c r="H60" t="s">
-        <v>18</v>
-      </c>
-      <c r="I60" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>18</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
         <v>16</v>
       </c>
-      <c r="B61" t="s">
-        <v>18</v>
-      </c>
-      <c r="H61" t="s">
-        <v>18</v>
-      </c>
-      <c r="I61" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
+      <c r="B65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>18</v>
+      </c>
+      <c r="F65" t="s">
+        <v>18</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
         <v>17</v>
       </c>
-      <c r="B62" t="s">
-        <v>18</v>
-      </c>
-      <c r="H62" t="s">
-        <v>18</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>18</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>74</v>
+      </c>
+      <c r="B67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" t="s">
         <v>18</v>
       </c>
     </row>

--- a/ConfigurationFiles/1-FA_Whitelist.xlsx
+++ b/ConfigurationFiles/1-FA_Whitelist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="530" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="108">
   <si>
     <t>FattyAcid</t>
   </si>
@@ -256,6 +256,93 @@
   </si>
   <si>
     <t>PL</t>
+  </si>
+  <si>
+    <t>SPB16:0;1</t>
+  </si>
+  <si>
+    <t>SPB16:0;2</t>
+  </si>
+  <si>
+    <t>SPB16:0;3</t>
+  </si>
+  <si>
+    <t>SPB16:1;2</t>
+  </si>
+  <si>
+    <t>SPB16:1;3</t>
+  </si>
+  <si>
+    <t>SPB17:0;1</t>
+  </si>
+  <si>
+    <t>SPB17:0;2</t>
+  </si>
+  <si>
+    <t>SPB17:0;3</t>
+  </si>
+  <si>
+    <t>SPB17:1;1</t>
+  </si>
+  <si>
+    <t>SPB17:1;2</t>
+  </si>
+  <si>
+    <t>SPB17:1;3</t>
+  </si>
+  <si>
+    <t>SPB18:0;1</t>
+  </si>
+  <si>
+    <t>SPB18:0;3</t>
+  </si>
+  <si>
+    <t>SPB18:1;1</t>
+  </si>
+  <si>
+    <t>SPB18:1;3</t>
+  </si>
+  <si>
+    <t>SPB19:0;1</t>
+  </si>
+  <si>
+    <t>SPB19:0;2</t>
+  </si>
+  <si>
+    <t>SPB19:0;3</t>
+  </si>
+  <si>
+    <t>SPB19:1;1</t>
+  </si>
+  <si>
+    <t>SPB19:1;2</t>
+  </si>
+  <si>
+    <t>SPB19:1;3</t>
+  </si>
+  <si>
+    <t>SPB20:0;1</t>
+  </si>
+  <si>
+    <t>SPB20:0;2</t>
+  </si>
+  <si>
+    <t>SPB20:1;1</t>
+  </si>
+  <si>
+    <t>SPB20:1;2</t>
+  </si>
+  <si>
+    <t>SPB20:1;3</t>
+  </si>
+  <si>
+    <t>SPB18:2;1</t>
+  </si>
+  <si>
+    <t>SPB18:2;2</t>
+  </si>
+  <si>
+    <t>FA21:0</t>
   </si>
 </sst>
 </file>
@@ -573,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I70"/>
+  <dimension ref="A1:I99"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q29" sqref="Q29"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -638,6 +725,9 @@
       <c r="H2" t="s">
         <v>18</v>
       </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
@@ -664,6 +754,9 @@
       <c r="H3" t="s">
         <v>18</v>
       </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
@@ -690,6 +783,9 @@
       <c r="H4" t="s">
         <v>18</v>
       </c>
+      <c r="I4" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
@@ -716,6 +812,9 @@
       <c r="H5" t="s">
         <v>18</v>
       </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
@@ -742,6 +841,9 @@
       <c r="H6" t="s">
         <v>18</v>
       </c>
+      <c r="I6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
@@ -768,6 +870,9 @@
       <c r="H7" t="s">
         <v>18</v>
       </c>
+      <c r="I7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
@@ -794,6 +899,9 @@
       <c r="H8" t="s">
         <v>18</v>
       </c>
+      <c r="I8" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
@@ -820,6 +928,9 @@
       <c r="H9" t="s">
         <v>18</v>
       </c>
+      <c r="I9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
@@ -846,6 +957,9 @@
       <c r="H10" t="s">
         <v>18</v>
       </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
@@ -872,6 +986,9 @@
       <c r="H11" t="s">
         <v>18</v>
       </c>
+      <c r="I11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
@@ -898,6 +1015,9 @@
       <c r="H12" t="s">
         <v>18</v>
       </c>
+      <c r="I12" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
@@ -924,6 +1044,9 @@
       <c r="H13" t="s">
         <v>18</v>
       </c>
+      <c r="I13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
@@ -950,6 +1073,9 @@
       <c r="H14" t="s">
         <v>18</v>
       </c>
+      <c r="I14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
@@ -1707,27 +1833,12 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
-        <v>24</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
         <v>18</v>
       </c>
       <c r="C41" t="s">
-        <v>18</v>
-      </c>
-      <c r="D41" t="s">
-        <v>18</v>
-      </c>
-      <c r="E41" t="s">
-        <v>18</v>
-      </c>
-      <c r="F41" t="s">
-        <v>18</v>
-      </c>
-      <c r="G41" t="s">
-        <v>18</v>
-      </c>
-      <c r="H41" t="s">
         <v>18</v>
       </c>
       <c r="I41" t="s">
@@ -1736,7 +1847,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B42" t="s">
         <v>18</v>
@@ -1765,7 +1876,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B43" t="s">
         <v>18</v>
@@ -1794,7 +1905,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
         <v>18</v>
@@ -1823,7 +1934,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
         <v>18</v>
@@ -1852,7 +1963,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B46" t="s">
         <v>18</v>
@@ -1881,7 +1992,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B47" t="s">
         <v>18</v>
@@ -1899,6 +2010,9 @@
         <v>18</v>
       </c>
       <c r="G47" t="s">
+        <v>18</v>
+      </c>
+      <c r="H47" t="s">
         <v>18</v>
       </c>
       <c r="I47" t="s">
@@ -1907,7 +2021,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B48" t="s">
         <v>18</v>
@@ -1925,6 +2039,9 @@
         <v>18</v>
       </c>
       <c r="G48" t="s">
+        <v>18</v>
+      </c>
+      <c r="H48" t="s">
         <v>18</v>
       </c>
       <c r="I48" t="s">
@@ -1933,9 +2050,27 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
+      <c r="H49" t="s">
         <v>18</v>
       </c>
       <c r="I49" t="s">
@@ -1944,9 +2079,12 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="H50" t="s">
         <v>18</v>
       </c>
       <c r="I50" t="s">
@@ -1955,24 +2093,12 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="B51" t="s">
         <v>18</v>
       </c>
-      <c r="C51" t="s">
-        <v>18</v>
-      </c>
-      <c r="D51" t="s">
-        <v>18</v>
-      </c>
-      <c r="E51" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" t="s">
-        <v>18</v>
-      </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>18</v>
       </c>
       <c r="I51" t="s">
@@ -1981,7 +2107,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
         <v>18</v>
@@ -1999,6 +2125,9 @@
         <v>18</v>
       </c>
       <c r="G52" t="s">
+        <v>18</v>
+      </c>
+      <c r="H52" t="s">
         <v>18</v>
       </c>
       <c r="I52" t="s">
@@ -2007,7 +2136,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B53" t="s">
         <v>18</v>
@@ -2025,6 +2154,9 @@
         <v>18</v>
       </c>
       <c r="G53" t="s">
+        <v>18</v>
+      </c>
+      <c r="H53" t="s">
         <v>18</v>
       </c>
       <c r="I53" t="s">
@@ -2033,7 +2165,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B54" t="s">
         <v>18</v>
@@ -2051,6 +2183,9 @@
         <v>18</v>
       </c>
       <c r="G54" t="s">
+        <v>18</v>
+      </c>
+      <c r="H54" t="s">
         <v>18</v>
       </c>
       <c r="I54" t="s">
@@ -2059,7 +2194,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="B55" t="s">
         <v>18</v>
@@ -2077,6 +2212,9 @@
         <v>18</v>
       </c>
       <c r="G55" t="s">
+        <v>18</v>
+      </c>
+      <c r="H55" t="s">
         <v>18</v>
       </c>
       <c r="I55" t="s">
@@ -2085,9 +2223,27 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>18</v>
+      </c>
+      <c r="F56" t="s">
+        <v>18</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
+      <c r="H56" t="s">
         <v>18</v>
       </c>
       <c r="I56" t="s">
@@ -2096,9 +2252,12 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
+        <v>18</v>
+      </c>
+      <c r="H57" t="s">
         <v>18</v>
       </c>
       <c r="I57" t="s">
@@ -2107,24 +2266,12 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>73</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
       </c>
-      <c r="C58" t="s">
-        <v>18</v>
-      </c>
-      <c r="D58" t="s">
-        <v>18</v>
-      </c>
-      <c r="E58" t="s">
-        <v>18</v>
-      </c>
-      <c r="F58" t="s">
-        <v>18</v>
-      </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>18</v>
       </c>
       <c r="I58" t="s">
@@ -2133,7 +2280,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A59" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -2151,12 +2298,18 @@
         <v>18</v>
       </c>
       <c r="G59" t="s">
+        <v>18</v>
+      </c>
+      <c r="H59" t="s">
+        <v>18</v>
+      </c>
+      <c r="I59" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -2174,16 +2327,28 @@
         <v>18</v>
       </c>
       <c r="G60" t="s">
+        <v>18</v>
+      </c>
+      <c r="H60" t="s">
+        <v>18</v>
+      </c>
+      <c r="I60" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
       </c>
+      <c r="C61" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
       <c r="E61" t="s">
         <v>18</v>
       </c>
@@ -2191,12 +2356,15 @@
         <v>18</v>
       </c>
       <c r="G61" t="s">
+        <v>18</v>
+      </c>
+      <c r="I61" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -2213,7 +2381,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A63" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -2230,7 +2398,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A64" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -2247,7 +2415,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A65" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -2264,7 +2432,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A66" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -2281,36 +2449,370 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A67" t="s">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
       </c>
-      <c r="I67" t="s">
+      <c r="E67" t="s">
+        <v>18</v>
+      </c>
+      <c r="F67" t="s">
+        <v>18</v>
+      </c>
+      <c r="G67" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A68" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B68" t="s">
+        <v>18</v>
+      </c>
+      <c r="I68" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A69" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
+        <v>18</v>
+      </c>
+      <c r="I69" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="I70" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>87</v>
+      </c>
+      <c r="B71" t="s">
+        <v>18</v>
+      </c>
+      <c r="I71" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>90</v>
+      </c>
+      <c r="B72" t="s">
+        <v>18</v>
+      </c>
+      <c r="I72" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>92</v>
+      </c>
+      <c r="B73" t="s">
+        <v>18</v>
+      </c>
+      <c r="I73" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I74" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" t="s">
+        <v>18</v>
+      </c>
+      <c r="I75" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>97</v>
+      </c>
+      <c r="B76" t="s">
+        <v>18</v>
+      </c>
+      <c r="I76" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="I80" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>85</v>
+      </c>
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="I81" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>88</v>
+      </c>
+      <c r="B82" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>75</v>
+      </c>
+      <c r="B83" t="s">
+        <v>18</v>
+      </c>
+      <c r="I83" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>74</v>
+      </c>
+      <c r="B84" t="s">
+        <v>18</v>
+      </c>
+      <c r="I84" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>106</v>
+      </c>
+      <c r="B85" t="s">
+        <v>18</v>
+      </c>
+      <c r="I85" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>95</v>
+      </c>
+      <c r="B86" t="s">
+        <v>18</v>
+      </c>
+      <c r="I86" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>18</v>
+      </c>
+      <c r="I87" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>101</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="I88" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" t="s">
+        <v>18</v>
+      </c>
+      <c r="I89" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>81</v>
+      </c>
+      <c r="B90" t="s">
+        <v>18</v>
+      </c>
+      <c r="I90" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>83</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="I91" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>86</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="I92" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>89</v>
+      </c>
+      <c r="B93" t="s">
+        <v>18</v>
+      </c>
+      <c r="I93" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>91</v>
+      </c>
+      <c r="B94" t="s">
+        <v>18</v>
+      </c>
+      <c r="I94" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" t="s">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>18</v>
+      </c>
+      <c r="I95" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
         <v>77</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>104</v>
+      </c>
+      <c r="B99" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" t="s">
         <v>18</v>
       </c>
     </row>

--- a/ConfigurationFiles/1-FA_Whitelist.xlsx
+++ b/ConfigurationFiles/1-FA_Whitelist.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="109">
   <si>
     <t>FattyAcid</t>
   </si>
@@ -343,6 +343,9 @@
   </si>
   <si>
     <t>FA21:0</t>
+  </si>
+  <si>
+    <t>SPB15:0;1</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I99"/>
+  <dimension ref="A1:I100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="I41" sqref="I41"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2257,6 +2260,9 @@
       <c r="B57" t="s">
         <v>18</v>
       </c>
+      <c r="C57" t="s">
+        <v>18</v>
+      </c>
       <c r="H57" t="s">
         <v>18</v>
       </c>
@@ -2271,6 +2277,9 @@
       <c r="B58" t="s">
         <v>18</v>
       </c>
+      <c r="C58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
         <v>18</v>
       </c>
@@ -2813,6 +2822,17 @@
         <v>18</v>
       </c>
       <c r="I99" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>108</v>
+      </c>
+      <c r="B100" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" t="s">
         <v>18</v>
       </c>
     </row>
